--- a/result/gr75_04_simulated/details.xlsx
+++ b/result/gr75_04_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8234689235687256</v>
+        <v>0.5247597694396973</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.50647184389</v>
+        <v>1015.851521803035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04259276551110581</v>
+        <v>0.04353358270513147</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03456199788294995</v>
+        <v>0.03444567435367678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03106911013191057</v>
+        <v>0.03074984951622179</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02850525929338019</v>
+        <v>0.02892010109893193</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02820446205108528</v>
+        <v>0.02712492508869935</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02623258189329709</v>
+        <v>0.02655668160552065</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0252128248374911</v>
+        <v>0.02635171079737676</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02508242557816416</v>
+        <v>0.02462414224894398</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02361104979716298</v>
+        <v>0.02407790397360558</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02348879721404742</v>
+        <v>0.02271520007976672</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02231623445527966</v>
+        <v>0.02197240941891342</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02190510689341102</v>
+        <v>0.02193349371614397</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02108708655995416</v>
+        <v>0.02123959925304943</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02108708655995416</v>
+        <v>0.0207039791190646</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02104668406689353</v>
+        <v>0.02052906736564955</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02053295551730537</v>
+        <v>0.02042131721856156</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02053295551730537</v>
+        <v>0.02019050009236553</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02039587307682858</v>
+        <v>0.02004724577085188</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02035416399468113</v>
+        <v>0.01994772349690306</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02020480451937406</v>
+        <v>0.01980217391428918</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5997076034545898</v>
+        <v>0.562481164932251</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>982.5236295924242</v>
+        <v>978.2864450684956</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04370824435216895</v>
+        <v>0.0440105220989879</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03582691427008212</v>
+        <v>0.03517163507590567</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02920485399930853</v>
+        <v>0.03049317271508148</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02561178958125846</v>
+        <v>0.02902717641962652</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02561178958125846</v>
+        <v>0.0258741844331928</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02438952425111618</v>
+        <v>0.02584672168086059</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02350364877552126</v>
+        <v>0.02386084036700727</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02318827622161143</v>
+        <v>0.02312940044611471</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02284235644612919</v>
+        <v>0.02131356324549862</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02216327582277119</v>
+        <v>0.02091048553444405</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02162676940133263</v>
+        <v>0.02053353928135233</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02114694009993832</v>
+        <v>0.02053353928135233</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02052675176198251</v>
+        <v>0.02042317077267236</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02006871601760839</v>
+        <v>0.02031513636354706</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02002671453438373</v>
+        <v>0.01995789940142488</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01970598985906186</v>
+        <v>0.0196899608122835</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01953274510140783</v>
+        <v>0.01938484013032136</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01931839556986935</v>
+        <v>0.01938484013032136</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01926145368397393</v>
+        <v>0.0191881642875721</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01915250739946246</v>
+        <v>0.01906991120991219</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5644218921661377</v>
+        <v>0.6512632369995117</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>988.4381433727376</v>
+        <v>1018.849337392961</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04436861632832288</v>
+        <v>0.04424692383852416</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03493500676009006</v>
+        <v>0.03457353697771288</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03119509560322163</v>
+        <v>0.03375647174047652</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0267044234075702</v>
+        <v>0.02928968052117717</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02610925505205815</v>
+        <v>0.02780320140677391</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02455145103668338</v>
+        <v>0.02604240690928344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0231072024286679</v>
+        <v>0.02421915529617791</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02249595624503581</v>
+        <v>0.0238814969807821</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02137293419322134</v>
+        <v>0.0227884506485165</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02071390692101554</v>
+        <v>0.02237591482518961</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02009118408502538</v>
+        <v>0.02202172005536716</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02009118408502538</v>
+        <v>0.02157646183228585</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01998087686699296</v>
+        <v>0.02133823225935226</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01998087686699296</v>
+        <v>0.02105947047369792</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01969529603420135</v>
+        <v>0.02052555368816839</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01959030548215658</v>
+        <v>0.02019905489674493</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01958035084972386</v>
+        <v>0.02014572091682995</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01947961180379232</v>
+        <v>0.02008125702931619</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01934936687767243</v>
+        <v>0.0200267088435355</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01926780006574537</v>
+        <v>0.01986061086535987</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5725235939025879</v>
+        <v>0.5468742847442627</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1043.609898595487</v>
+        <v>973.5100396082471</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04364936055663503</v>
+        <v>0.04384622003796942</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03392083999132323</v>
+        <v>0.03409913259910855</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03278762539905523</v>
+        <v>0.03054456461058206</v>
       </c>
       <c r="I5" t="n">
-        <v>0.030186254392424</v>
+        <v>0.02960969669596743</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0288420682346542</v>
+        <v>0.0280569689945873</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02769302439621561</v>
+        <v>0.02654465714671796</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02582913344181038</v>
+        <v>0.02543994139882132</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02427045948792631</v>
+        <v>0.02267802734953439</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02406935438244336</v>
+        <v>0.02250169309713448</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02296732767664406</v>
+        <v>0.02126797501050933</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02274698065950275</v>
+        <v>0.02114246683395488</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02215184343798955</v>
+        <v>0.02032864839016065</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02129856608088355</v>
+        <v>0.01995026701401566</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02119345998034387</v>
+        <v>0.01984130768234333</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02091836143810138</v>
+        <v>0.01973080819941721</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02088764397773778</v>
+        <v>0.01928885844640875</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02066507456343658</v>
+        <v>0.01922406114933212</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02064394587308371</v>
+        <v>0.01920695791395917</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02045379128371453</v>
+        <v>0.01908346202051876</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.020343272877105</v>
+        <v>0.01897680389099896</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5720381736755371</v>
+        <v>0.5468912124633789</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>948.1930426811541</v>
+        <v>1033.022280668429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04317412043672025</v>
+        <v>0.04310471809090954</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03630546415735832</v>
+        <v>0.03542898012143193</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03105605898729509</v>
+        <v>0.03220654232904287</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02901413579876189</v>
+        <v>0.03079914541623187</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02570138452383063</v>
+        <v>0.02775215044070949</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02393186930335078</v>
+        <v>0.02508136372970765</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02270578379796143</v>
+        <v>0.02460846768729809</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02127989517466446</v>
+        <v>0.02351821558836606</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02043257035943683</v>
+        <v>0.02313539851679002</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02026627056813847</v>
+        <v>0.02241701585361392</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01979539956186215</v>
+        <v>0.02207325415090899</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01944896588959184</v>
+        <v>0.02177984606612211</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0191947035112154</v>
+        <v>0.02116498934196881</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01902798036735869</v>
+        <v>0.02105263158596622</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01886578190661231</v>
+        <v>0.02088922240513751</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01875672757879188</v>
+        <v>0.02071879717363475</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01866125881268636</v>
+        <v>0.02061190771703645</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01859545971323505</v>
+        <v>0.02039254567999182</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01851340810005291</v>
+        <v>0.0202756938254759</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01848329517896986</v>
+        <v>0.0201368865627374</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.564000129699707</v>
+        <v>0.5468697547912598</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>986.8309991935221</v>
+        <v>1008.945537715268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04378376652619943</v>
+        <v>0.04232375213043517</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03678558682328683</v>
+        <v>0.03549750832828641</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03170301667305515</v>
+        <v>0.03108312149905088</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02916864510319666</v>
+        <v>0.028899255132031</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0275335397622431</v>
+        <v>0.02795887944971161</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02623102373606405</v>
+        <v>0.02677966558932848</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0256491460660323</v>
+        <v>0.02430470129797487</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02349205307534267</v>
+        <v>0.02335688901891527</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0230130740540882</v>
+        <v>0.02240511112966551</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02279907364717638</v>
+        <v>0.02158499842838123</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02218794545522878</v>
+        <v>0.02124534064113502</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02172900391510249</v>
+        <v>0.02101245446061933</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02124548023850171</v>
+        <v>0.02074645965586943</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02106287006959736</v>
+        <v>0.02046097795322694</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02052586673489876</v>
+        <v>0.02031557169096871</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02005118913540383</v>
+        <v>0.02003286179398862</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01971543525523186</v>
+        <v>0.019992337840118</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01961229872096042</v>
+        <v>0.01981469213233647</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01935737683995744</v>
+        <v>0.01967709149712299</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01923647171917197</v>
+        <v>0.01966755434142822</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5586028099060059</v>
+        <v>0.5468783378601074</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>939.2463416844821</v>
+        <v>1044.884951470352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04356294849857815</v>
+        <v>0.04343238518233731</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03633938457208792</v>
+        <v>0.03501397441225395</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03219902829949247</v>
+        <v>0.02960306781843887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03042962933001095</v>
+        <v>0.02960306781843887</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02827931826571682</v>
+        <v>0.02630703039087743</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02495482472175835</v>
+        <v>0.02626046361789281</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02323639475662591</v>
+        <v>0.0256709862974506</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02219925853107837</v>
+        <v>0.02449395312363542</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02108415263463182</v>
+        <v>0.02330882550811191</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01985211273981894</v>
+        <v>0.02301220706054409</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01963281445277066</v>
+        <v>0.02233306374373391</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01924224853518149</v>
+        <v>0.02198040370454021</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01904210507695891</v>
+        <v>0.02166421669975016</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01887492624028466</v>
+        <v>0.02159400598499695</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01865020558678242</v>
+        <v>0.02094141705371976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01863558493204725</v>
+        <v>0.02094141705371976</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01849753194165471</v>
+        <v>0.02069289930100075</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0184213197930848</v>
+        <v>0.02059828352891236</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01835407746629937</v>
+        <v>0.02036812770897373</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01830889554940511</v>
+        <v>0.02036812770897373</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7499537467956543</v>
+        <v>0.5468711853027344</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1024.034078023695</v>
+        <v>1040.558970014104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04349025735197523</v>
+        <v>0.04318547018297157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03520086403016763</v>
+        <v>0.03580738114305564</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03197200664491621</v>
+        <v>0.03200745752633658</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0291043189333537</v>
+        <v>0.02892442895743145</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02810581727550316</v>
+        <v>0.02732037745657331</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02541421484824754</v>
+        <v>0.02611471318408891</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02541421484824754</v>
+        <v>0.02461292619029645</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02494630046218194</v>
+        <v>0.02461292619029645</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02385223505001012</v>
+        <v>0.02413910319950882</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0230197030198743</v>
+        <v>0.0225143612088428</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02273939685094113</v>
+        <v>0.0225143612088428</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02175704364543898</v>
+        <v>0.02191710990259695</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02117217890086714</v>
+        <v>0.02191710990259695</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02117217890086714</v>
+        <v>0.02133171870669925</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02082648876386188</v>
+        <v>0.02114128342890284</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02042317093967595</v>
+        <v>0.02075489955719433</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02025212974370331</v>
+        <v>0.02075489955719433</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02020490981104488</v>
+        <v>0.02062341577814452</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02003991316162624</v>
+        <v>0.02037866158055079</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01996167793418508</v>
+        <v>0.02028380058507026</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7600045204162598</v>
+        <v>0.5468649864196777</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1005.058063230839</v>
+        <v>1029.23121127412</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04357490486199764</v>
+        <v>0.04362820564852062</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03478047660901568</v>
+        <v>0.03409997752184046</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03135612399383154</v>
+        <v>0.030094698137524</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02883265244630926</v>
+        <v>0.02653631915879289</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02554454723797518</v>
+        <v>0.02653631915879289</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02543283274918034</v>
+        <v>0.02579004028146779</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02392297545131444</v>
+        <v>0.02433298472830729</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02232500648247343</v>
+        <v>0.02363834761215954</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0223178974613013</v>
+        <v>0.02205177251385142</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0221613331630552</v>
+        <v>0.02138488827080184</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02160688903668751</v>
+        <v>0.02138488827080184</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02150653885515403</v>
+        <v>0.02120320276569129</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02100716146654489</v>
+        <v>0.02086870650874248</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02062539738474802</v>
+        <v>0.020703809360469</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02034727924933355</v>
+        <v>0.02067549394413743</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02010624701481577</v>
+        <v>0.02048608004891432</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01999914361237445</v>
+        <v>0.02033772060845394</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01985069413094486</v>
+        <v>0.02023165775685362</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01968991514246198</v>
+        <v>0.02015096442648321</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01959177511171226</v>
+        <v>0.02006298657454425</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6823511123657227</v>
+        <v>0.5468754768371582</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>988.5967509971106</v>
+        <v>1037.065181818811</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0438582153761678</v>
+        <v>0.04416434559029265</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03517387702935507</v>
+        <v>0.03552623958851567</v>
       </c>
       <c r="H11" t="n">
-        <v>0.031802982846799</v>
+        <v>0.0329672852406748</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0293977586000176</v>
+        <v>0.02964472192542765</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02693963509895155</v>
+        <v>0.0270911697554614</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02480611963406471</v>
+        <v>0.02578298987573947</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02336123411940483</v>
+        <v>0.02502244850995143</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02273848345823718</v>
+        <v>0.0240540894862763</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02265184242225576</v>
+        <v>0.02380311353754343</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02201680463850733</v>
+        <v>0.02268769390567933</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02123321663338307</v>
+        <v>0.02268769390567933</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02123321663338307</v>
+        <v>0.02226184797445009</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02109498170267352</v>
+        <v>0.02172215457544962</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02062410770643695</v>
+        <v>0.02171004674102204</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02037985338670907</v>
+        <v>0.02096736685488985</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01994147003822059</v>
+        <v>0.02076163591093623</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01983264567662393</v>
+        <v>0.02049531131260856</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01945682756817904</v>
+        <v>0.02041477190202454</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01929416131532175</v>
+        <v>0.02033893068837184</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01927089183230235</v>
+        <v>0.0202156955520236</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_04_simulated/details.xlsx
+++ b/result/gr75_04_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5247597694396973</v>
+        <v>1.402001857757568</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1015.851521803035</v>
+        <v>1111.489525668081</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04353358270513147</v>
+        <v>0.04382238405149886</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03444567435367678</v>
+        <v>0.03605672573600956</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03074984951622179</v>
+        <v>0.03238454828618866</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02892010109893193</v>
+        <v>0.02984968898429384</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02712492508869935</v>
+        <v>0.02794665090691812</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02655668160552065</v>
+        <v>0.02685866724019624</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02635171079737676</v>
+        <v>0.02637038412424178</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02462414224894398</v>
+        <v>0.02559222481632079</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02407790397360558</v>
+        <v>0.02496187254004978</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02271520007976672</v>
+        <v>0.02424352554610183</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02197240941891342</v>
+        <v>0.02366113582582776</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02193349371614397</v>
+        <v>0.02352623618664306</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02123959925304943</v>
+        <v>0.0229729996708121</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0207039791190646</v>
+        <v>0.02229779156302234</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02052906736564955</v>
+        <v>0.02229779156302234</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02042131721856156</v>
+        <v>0.02198308584230929</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02019050009236553</v>
+        <v>0.02191178504773458</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02004724577085188</v>
+        <v>0.0218204920310211</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01994772349690306</v>
+        <v>0.02172574359155547</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01980217391428918</v>
+        <v>0.02166646248865655</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.562481164932251</v>
+        <v>1.236000299453735</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>978.2864450684956</v>
+        <v>1082.860336986898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0440105220989879</v>
+        <v>0.04439805636963341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03517163507590567</v>
+        <v>0.03764234423516215</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03049317271508148</v>
+        <v>0.03176317813667204</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02902717641962652</v>
+        <v>0.02952554752304999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0258741844331928</v>
+        <v>0.0279123239030453</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02584672168086059</v>
+        <v>0.02656049370387836</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02386084036700727</v>
+        <v>0.02656049370387836</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02312940044611471</v>
+        <v>0.02555220208207397</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02131356324549862</v>
+        <v>0.02519183101446608</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02091048553444405</v>
+        <v>0.02405296854434908</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02053353928135233</v>
+        <v>0.02344602903885229</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02053353928135233</v>
+        <v>0.0228845022980148</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02042317077267236</v>
+        <v>0.02208599530848862</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02031513636354706</v>
+        <v>0.02205893878578527</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01995789940142488</v>
+        <v>0.02179551034581526</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0196899608122835</v>
+        <v>0.02153673456125409</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01938484013032136</v>
+        <v>0.02134914433113034</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01938484013032136</v>
+        <v>0.02115645459621594</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0191881642875721</v>
+        <v>0.02115645459621594</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01906991120991219</v>
+        <v>0.02110838863522218</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6512632369995117</v>
+        <v>1.078995227813721</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1018.849337392961</v>
+        <v>1092.982650034321</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04424692383852416</v>
+        <v>0.04324704218586918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03457353697771288</v>
+        <v>0.03560538235314089</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03375647174047652</v>
+        <v>0.03193136677862912</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02928968052117717</v>
+        <v>0.03068243813614821</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02780320140677391</v>
+        <v>0.02896938807578996</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02604240690928344</v>
+        <v>0.02744447007205675</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02421915529617791</v>
+        <v>0.02669171560544902</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0238814969807821</v>
+        <v>0.02526982430849956</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0227884506485165</v>
+        <v>0.02467936451253348</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02237591482518961</v>
+        <v>0.02407866592412512</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02202172005536716</v>
+        <v>0.02331085435339228</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02157646183228585</v>
+        <v>0.02268952003632042</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02133823225935226</v>
+        <v>0.02225602004546522</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02105947047369792</v>
+        <v>0.02209841139334741</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02052555368816839</v>
+        <v>0.02197846537064103</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02019905489674493</v>
+        <v>0.02179945461747924</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02014572091682995</v>
+        <v>0.02142021076992367</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02008125702931619</v>
+        <v>0.02142021076992367</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0200267088435355</v>
+        <v>0.02130570467903159</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01986061086535987</v>
+        <v>0.02130570467903159</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5468742847442627</v>
+        <v>1.214994192123413</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>973.5100396082471</v>
+        <v>1098.432134141374</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04384622003796942</v>
+        <v>0.0430273248552243</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03409913259910855</v>
+        <v>0.03637295598952074</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03054456461058206</v>
+        <v>0.0324591586329178</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02960969669596743</v>
+        <v>0.02918095392931441</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0280569689945873</v>
+        <v>0.02830039816518203</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02654465714671796</v>
+        <v>0.02690296354921926</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02543994139882132</v>
+        <v>0.02573810522365879</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02267802734953439</v>
+        <v>0.02507692882594763</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02250169309713448</v>
+        <v>0.02499462474191791</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02126797501050933</v>
+        <v>0.02326354696619991</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02114246683395488</v>
+        <v>0.02326354696619991</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02032864839016065</v>
+        <v>0.02301018492677821</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01995026701401566</v>
+        <v>0.02261881099484565</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01984130768234333</v>
+        <v>0.02237915874756227</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01973080819941721</v>
+        <v>0.0220023462817038</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01928885844640875</v>
+        <v>0.02181281731084303</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01922406114933212</v>
+        <v>0.02181281731084303</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01920695791395917</v>
+        <v>0.02159162198020709</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01908346202051876</v>
+        <v>0.02157069656937488</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01897680389099896</v>
+        <v>0.021411932439403</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5468912124633789</v>
+        <v>1.074001550674438</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1033.022280668429</v>
+        <v>1109.690256389744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04310471809090954</v>
+        <v>0.04322574068151943</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03542898012143193</v>
+        <v>0.03602517710291294</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03220654232904287</v>
+        <v>0.03366921202197963</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03079914541623187</v>
+        <v>0.03029766197714675</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02775215044070949</v>
+        <v>0.02805677936716721</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02508136372970765</v>
+        <v>0.02614089965699919</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02460846768729809</v>
+        <v>0.02592307871928971</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02351821558836606</v>
+        <v>0.02408444495740039</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02313539851679002</v>
+        <v>0.02375540266394418</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02241701585361392</v>
+        <v>0.02375540266394418</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02207325415090899</v>
+        <v>0.02344053090514753</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02177984606612211</v>
+        <v>0.02342130949597616</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02116498934196881</v>
+        <v>0.02322807208097031</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02105263158596622</v>
+        <v>0.02253845672827561</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02088922240513751</v>
+        <v>0.02253845672827561</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02071879717363475</v>
+        <v>0.02222802160163564</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02061190771703645</v>
+        <v>0.02193913932402497</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02039254567999182</v>
+        <v>0.02180207921234046</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0202756938254759</v>
+        <v>0.0217133420460938</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0201368865627374</v>
+        <v>0.02163138901344529</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5468697547912598</v>
+        <v>1.234985828399658</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1008.945537715268</v>
+        <v>1077.53029752072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04232375213043517</v>
+        <v>0.04441323764315241</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03549750832828641</v>
+        <v>0.03718071724471769</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03108312149905088</v>
+        <v>0.0329524146774493</v>
       </c>
       <c r="I7" t="n">
-        <v>0.028899255132031</v>
+        <v>0.03161868548943408</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02795887944971161</v>
+        <v>0.02797589206553492</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02677966558932848</v>
+        <v>0.02758838242935261</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02430470129797487</v>
+        <v>0.0261139364447245</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02335688901891527</v>
+        <v>0.02554467800895161</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02240511112966551</v>
+        <v>0.0251457368864357</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02158499842838123</v>
+        <v>0.0239292109474071</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02124534064113502</v>
+        <v>0.02328091686384322</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02101245446061933</v>
+        <v>0.02273191527302573</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02074645965586943</v>
+        <v>0.02217539282607406</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02046097795322694</v>
+        <v>0.02193018481486422</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02031557169096871</v>
+        <v>0.02142155465755702</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02003286179398862</v>
+        <v>0.02142155465755702</v>
       </c>
       <c r="V7" t="n">
-        <v>0.019992337840118</v>
+        <v>0.02130395643118798</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01981469213233647</v>
+        <v>0.02114923592997328</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01967709149712299</v>
+        <v>0.02109244753830948</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01966755434142822</v>
+        <v>0.02100448923042338</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5468783378601074</v>
+        <v>1.129998683929443</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1044.884951470352</v>
+        <v>1080.060117035959</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04343238518233731</v>
+        <v>0.04374821058621453</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03501397441225395</v>
+        <v>0.03578353419861968</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02960306781843887</v>
+        <v>0.03311995808889262</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02960306781843887</v>
+        <v>0.02975908129897101</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02630703039087743</v>
+        <v>0.02870288693477724</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02626046361789281</v>
+        <v>0.02660013566609448</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0256709862974506</v>
+        <v>0.02546180130593555</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02449395312363542</v>
+        <v>0.02456785495300525</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02330882550811191</v>
+        <v>0.02437522386763857</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02301220706054409</v>
+        <v>0.02364254696633713</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02233306374373391</v>
+        <v>0.02329047287497531</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02198040370454021</v>
+        <v>0.02255923391821012</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02166421669975016</v>
+        <v>0.02208298668887341</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02159400598499695</v>
+        <v>0.02195256541066474</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02094141705371976</v>
+        <v>0.02186513080063413</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02094141705371976</v>
+        <v>0.02156521346846306</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02069289930100075</v>
+        <v>0.02149899777680111</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02059828352891236</v>
+        <v>0.02133298732568251</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02036812770897373</v>
+        <v>0.02114169244952361</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02036812770897373</v>
+        <v>0.02105380345099334</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5468711853027344</v>
+        <v>1.120998859405518</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1040.558970014104</v>
+        <v>1117.965144351105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04318547018297157</v>
+        <v>0.04343125467729296</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03580738114305564</v>
+        <v>0.03641943870275671</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03200745752633658</v>
+        <v>0.03254155954424213</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02892442895743145</v>
+        <v>0.02991022402329768</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02732037745657331</v>
+        <v>0.0280023202606109</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02611471318408891</v>
+        <v>0.02738840712066392</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02461292619029645</v>
+        <v>0.02580314601145084</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02461292619029645</v>
+        <v>0.02532194714767779</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02413910319950882</v>
+        <v>0.0247402815112107</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0225143612088428</v>
+        <v>0.02391251089834247</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0225143612088428</v>
+        <v>0.02376958059690317</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02191710990259695</v>
+        <v>0.02347955588099854</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02191710990259695</v>
+        <v>0.02330064599207457</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02133171870669925</v>
+        <v>0.0226390589394497</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02114128342890284</v>
+        <v>0.02244338473472619</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02075489955719433</v>
+        <v>0.02244338473472619</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02075489955719433</v>
+        <v>0.02210952637079219</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02062341577814452</v>
+        <v>0.02205329238684126</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02037866158055079</v>
+        <v>0.02181332420809654</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02028380058507026</v>
+        <v>0.02179269287234122</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5468649864196777</v>
+        <v>1.188011884689331</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1029.23121127412</v>
+        <v>1117.0367702164</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04362820564852062</v>
+        <v>0.04288414632950576</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03409997752184046</v>
+        <v>0.03653695853235905</v>
       </c>
       <c r="H10" t="n">
-        <v>0.030094698137524</v>
+        <v>0.03258139865763486</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02653631915879289</v>
+        <v>0.03153219665857632</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02653631915879289</v>
+        <v>0.03045154639991922</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02579004028146779</v>
+        <v>0.02897521860848758</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02433298472830729</v>
+        <v>0.02634211980400364</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02363834761215954</v>
+        <v>0.0263360261240581</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02205177251385142</v>
+        <v>0.0254773467478316</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02138488827080184</v>
+        <v>0.02415855973949551</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02138488827080184</v>
+        <v>0.02396817250775325</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02120320276569129</v>
+        <v>0.02368186948899537</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02086870650874248</v>
+        <v>0.02299909999260738</v>
       </c>
       <c r="S10" t="n">
-        <v>0.020703809360469</v>
+        <v>0.02266921818565666</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02067549394413743</v>
+        <v>0.02241552012280473</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02048608004891432</v>
+        <v>0.02215916853157435</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02033772060845394</v>
+        <v>0.02215916853157435</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02023165775685362</v>
+        <v>0.02215593922634545</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02015096442648321</v>
+        <v>0.02195319362395484</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02006298657454425</v>
+        <v>0.02177459591065107</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5468754768371582</v>
+        <v>1.062998533248901</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1037.065181818811</v>
+        <v>1093.99302506202</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04416434559029265</v>
+        <v>0.04380072938683001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03552623958851567</v>
+        <v>0.03747125524319624</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0329672852406748</v>
+        <v>0.03439291722931721</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02964472192542765</v>
+        <v>0.03087919643449778</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0270911697554614</v>
+        <v>0.02991392602388328</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02578298987573947</v>
+        <v>0.0270714242002147</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02502244850995143</v>
+        <v>0.02643852547618391</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0240540894862763</v>
+        <v>0.02476907238523677</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02380311353754343</v>
+        <v>0.02390815163129871</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02268769390567933</v>
+        <v>0.02386898097615687</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02268769390567933</v>
+        <v>0.0238288593150442</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02226184797445009</v>
+        <v>0.02334602946096209</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02172215457544962</v>
+        <v>0.02239942446104278</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02171004674102204</v>
+        <v>0.02239942446104278</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02096736685488985</v>
+        <v>0.02203512979043112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02076163591093623</v>
+        <v>0.02194339384576251</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02049531131260856</v>
+        <v>0.02177449649752153</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02041477190202454</v>
+        <v>0.0215414733934439</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02033893068837184</v>
+        <v>0.0214357854117811</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0202156955520236</v>
+        <v>0.02132540009867485</v>
       </c>
     </row>
   </sheetData>
